--- a/xlsx/互动百科_intext.xlsx
+++ b/xlsx/互动百科_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>互动百科</t>
   </si>
@@ -29,7 +29,7 @@
     <t>百科全书</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_互动百科</t>
+    <t>政策_政策_维基百科_互动百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%A5%AD</t>
   </si>
   <si>
-    <t>創業</t>
+    <t>创业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E6%B5%B7%E4%B8%9C</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>標語</t>
+    <t>标语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Alexa_Internet</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E7%94%9F</t>
   </si>
   <si>
-    <t>大學生</t>
+    <t>大学生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>中華百科全書</t>
+    <t>中华百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MBA%E6%99%BA%E5%BA%93%E7%99%BE%E7%A7%91</t>
@@ -287,9 +287,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>中文維基百科</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/360%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B6%B2%E7%B5%A1%E5%A4%A7%E5%85%B8</t>
   </si>
   <si>
-    <t>香港網絡大典</t>
+    <t>香港网络大典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%85%B8</t>
@@ -323,7 +320,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%AE%A2%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>維客中國</t>
+    <t>维客中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%BA%93</t>
@@ -335,7 +332,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E5%A4%A9%E6%9B%B8</t>
   </si>
   <si>
-    <t>網絡天書</t>
+    <t>网络天书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AcFun</t>
@@ -347,7 +344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%A4%A7%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>台灣大百科全書</t>
+    <t>台湾大百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
@@ -2064,7 +2061,7 @@
         <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2090,10 +2087,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2119,10 +2116,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2148,10 +2145,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2177,10 +2174,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2206,10 +2203,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2235,10 +2232,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2264,10 +2261,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2293,10 +2290,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2322,10 +2319,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2351,10 +2348,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2380,10 +2377,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2409,10 +2406,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
